--- a/biology/Botanique/Pedicularis_forrestiana/Pedicularis_forrestiana.xlsx
+++ b/biology/Botanique/Pedicularis_forrestiana/Pedicularis_forrestiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pedicularis forrestiana 福氏马先蒿 est une espèce de plante herbacée du genre Pedicularis appartenant à la famille des Scrophulariaceae selon la classification classique de Cronquist (1981)[2] ou à la famille des Orobanchaceae selon la classification phylogénétique. On la rencontre dans les régions montagneuses du Yunnan. Elle doit son nom au botaniste écossais George Forrest (1873-1932) qui la découvrit au début du XXe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pedicularis forrestiana 福氏马先蒿 est une espèce de plante herbacée du genre Pedicularis appartenant à la famille des Scrophulariaceae selon la classification classique de Cronquist (1981) ou à la famille des Orobanchaceae selon la classification phylogénétique. On la rencontre dans les régions montagneuses du Yunnan. Elle doit son nom au botaniste écossais George Forrest (1873-1932) qui la découvrit au début du XXe siècle.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante herbacée possède des tiges simples et dressées de 15 à 20 cm de hauteur, parfois plus, aux nombreuses feuilles caulinaires dont le pétiole cillé mesure de 5 à 6 cm. Les feuilles oblongues, pennées et dentées mesurent de 3 à 5 cm  de long sur 1 à 2 cm de large.
 Ses fleurs possèdent des corolles de couleur rose de 1,6 cm à 2 cm et un calice glabre de 7 à 8 mm. Pedicularis forrestiana fleurit de juillet à août.
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre Pedicularis forrestiana dans les prés alpins à végétation grasse et buissonnante des montagnes du nord-ouest du Yunnan entre 3 300 mètres et 4 000 mètres d'altitude.
 </t>
